--- a/DATA_goal/Junction_Flooding_105.xlsx
+++ b/DATA_goal/Junction_Flooding_105.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41537.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.35</v>
+        <v>2.33</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>23.98</v>
+        <v>2.4</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>123.08</v>
+        <v>12.31</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41537.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.82</v>
+        <v>2.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.69</v>
+        <v>4.57</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.59</v>
+        <v>3.66</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.25</v>
+        <v>1.63</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.62</v>
+        <v>6.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.45</v>
+        <v>2.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.29</v>
+        <v>1.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>243.33</v>
+        <v>24.33</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>46</v>
+        <v>4.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.55</v>
+        <v>3.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.73</v>
+        <v>3.07</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.29</v>
+        <v>5.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41537.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.26</v>
+        <v>3.83</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.05</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X4" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>131.17</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>8.85</v>
-      </c>
       <c r="Y4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.99</v>
+        <v>3.5</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41537.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.88</v>
+        <v>3.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>120.86</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>6.87</v>
-      </c>
       <c r="AB5" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.78</v>
+        <v>3.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41537.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="4" t="n">
+      <c r="V6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41537.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>33.85</v>
+        <v>3.39</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>27.58</v>
+        <v>2.76</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>43.2</v>
+        <v>4.32</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>178.06</v>
+        <v>17.81</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>33.9</v>
+        <v>3.39</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>22.75</v>
+        <v>2.28</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>21.63</v>
+        <v>2.16</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>38.87</v>
+        <v>3.89</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41537.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>13.37</v>
+        <v>1.34</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>22.23</v>
+        <v>2.22</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>65.95</v>
+        <v>6.6</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>20.52</v>
+        <v>2.05</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41537.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.45</v>
+        <v>1.65</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>27.91</v>
+        <v>2.79</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>103.67</v>
+        <v>10.37</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>20.35</v>
+        <v>2.03</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>25.21</v>
+        <v>2.52</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41537.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>27.17</v>
+        <v>2.72</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>22.19</v>
+        <v>2.22</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>37.25</v>
+        <v>3.72</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>141.45</v>
+        <v>14.15</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>27.31</v>
+        <v>2.73</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>18.34</v>
+        <v>1.83</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>33.76</v>
+        <v>3.38</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_105.xlsx
+++ b/DATA_goal/Junction_Flooding_105.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41537.34027777778</v>
+        <v>44786.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.06</v>
+        <v>2.4</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>1.67</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.33</v>
+        <v>5.07</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.72</v>
+        <v>4.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.4</v>
+        <v>6.32</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.32</v>
+        <v>2.91</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>1.24</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.72</v>
+        <v>1.92</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.92</v>
+        <v>1.99</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.01</v>
+        <v>2.09</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.35</v>
+        <v>3.13</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.7</v>
+        <v>1.53</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>1.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>2.07</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.14</v>
+        <v>5.59</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.97</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.99</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41537.34722222222</v>
+        <v>44786.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.08</v>
+        <v>0.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.57</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.66</v>
+        <v>0.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.11</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.06</v>
+        <v>1.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.17</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.09</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.96</v>
+        <v>0.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.65</v>
+        <v>0.11</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.32</v>
+        <v>0.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>24.33</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.09</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.53</v>
+        <v>1.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.05</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.9</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41537.35416666666</v>
+        <v>44786.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.15</v>
+        <v>2.07</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.85</v>
+        <v>1.51</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R4" s="4" t="n">
+      <c r="S4" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>13.12</v>
+        <v>23.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.55</v>
+        <v>4.51</v>
       </c>
       <c r="V4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.84</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.46</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41537.36111111111</v>
+        <v>44786.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.34</v>
+        <v>0.39</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.87</v>
+        <v>0.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.39</v>
+        <v>1.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.23</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.16</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.22</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.15</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.09</v>
+        <v>1.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.14</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.65</v>
+        <v>0.58</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.14</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.08</v>
+        <v>1.28</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41537.36805555555</v>
+        <v>44786.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="C6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.5</v>
+        <v>1.29</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.54</v>
+        <v>1.92</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.09</v>
+        <v>4.64</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41537.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41537.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V8" s="4" t="n">
         <v>0.44</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41537.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41537.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41537.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>39.64</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>3.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_105.xlsx
+++ b/DATA_goal/Junction_Flooding_105.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44786.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.07</v>
+        <v>50.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.19</v>
+        <v>41.95</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.32</v>
+        <v>63.18</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.92</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.65</v>
+        <v>26.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.6</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>27.88</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.24</v>
+        <v>52.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.49</v>
+        <v>34.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.13</v>
+        <v>31.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.59</v>
+        <v>55.94</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44786.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X3" s="4" t="n">
         <v>1.27</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44786.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.45</v>
+        <v>44.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.69</v>
+        <v>36.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.83</v>
+        <v>58.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.5</v>
+        <v>25.01</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.83</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.29</v>
+        <v>22.93</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.87</v>
+        <v>238.73</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.51</v>
+        <v>45.06</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.02</v>
+        <v>30.22</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.87</v>
+        <v>28.68</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.75</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.24</v>
+        <v>52.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44786.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_105.xlsx
+++ b/DATA_goal/Junction_Flooding_105.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44786.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.69</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.7</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.95</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.18</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.18</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.93</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.92</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.04</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.51</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.6</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.37</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.89</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.13</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.39</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.29</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.71</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.03</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.71</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.94</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
@@ -759,76 +759,76 @@
         <v>44786.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.441</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.52</v>
+        <v>2.524</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.14</v>
+        <v>2.142</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.74</v>
+        <v>12.735</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.653</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.637</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.201</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.511</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.624</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.02</v>
+        <v>10.019</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.8</v>
+        <v>3.799</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.4</v>
+        <v>2.397</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.274</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>5.25</v>
@@ -837,25 +837,25 @@
         <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.073</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.187</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.892</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.99</v>
+        <v>11.993</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="4">
@@ -863,58 +863,58 @@
         <v>44786.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.07</v>
+        <v>15.074</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.465</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.54</v>
+        <v>44.541</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.88</v>
+        <v>36.879</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.26</v>
+        <v>16.257</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>58.29</v>
+        <v>58.293</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.01</v>
+        <v>25.014</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.01</v>
+        <v>11.013</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.6</v>
+        <v>16.604</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.83</v>
+        <v>17.829</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.19</v>
+        <v>5.191</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.93</v>
+        <v>22.931</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.64</v>
+        <v>13.639</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.126</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>238.73</v>
@@ -923,43 +923,43 @@
         <v>45.06</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.22</v>
+        <v>30.217</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.11</v>
+        <v>16.107</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.061</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.68</v>
+        <v>28.679</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.748</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>13.79</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.35</v>
+        <v>52.354</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.4</v>
+        <v>8.396000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.66</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44786.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_105.xlsx
+++ b/DATA_goal/Junction_Flooding_105.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44786.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>1.922</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.621</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>3.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.25</v>
+        <v>3.254</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.516</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>13.5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.035</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.413</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.54</v>
+        <v>1.543</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.569</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.513</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.22</v>
+        <v>2.223</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.46</v>
+        <v>1.462</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.715</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.7</v>
+        <v>15.704</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.75</v>
+        <v>4.752</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.15</v>
+        <v>3.151</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.693</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.84</v>
+        <v>5.836</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.233</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>1.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.63</v>
+        <v>1.625</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>12.763</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.745</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44786.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.75</v>
+      <c r="S6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_105.xlsx
+++ b/DATA_goal/Junction_Flooding_105.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44786.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.922</v>
+        <v>1.92</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.621</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>3.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.254</v>
+        <v>3.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.516</v>
+        <v>1.52</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>13.5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.327</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.035</v>
+        <v>1.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.413</v>
+        <v>1.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.543</v>
+        <v>1.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.569</v>
+        <v>1.57</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.513</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.504</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.223</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.462</v>
+        <v>1.46</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.715</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.704</v>
+        <v>15.7</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.752</v>
+        <v>4.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.388</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.151</v>
+        <v>3.15</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.693</v>
+        <v>1.69</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.143</v>
+        <v>0.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.836</v>
+        <v>5.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.226</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.233</v>
+        <v>1.23</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>1.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.625</v>
+        <v>1.63</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.763</v>
+        <v>12.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.694</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.745</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44786.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.44</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
